--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.60945095069513</v>
+        <v>10668.2807391883</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.60945095069513</v>
+        <v>10668.2807391883</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77426.5493960302</v>
+        <v>5168698.673855723</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77426.5493960302</v>
+        <v>5168698.673855723</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113646032.796546</v>
+        <v>42770807.0186856</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13060.69594248229</v>
+        <v>1187844.460713877</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23967.08571959627</v>
+        <v>2001958.270853099</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34869.0593476402</v>
+        <v>2816072.080992321</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45997.34978719821</v>
+        <v>3629369.919696627</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57125.64022675623</v>
+        <v>4442667.758400933</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68253.93066631425</v>
+        <v>5255965.597105238</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79382.15957028764</v>
+        <v>6069263.435809538</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90510.38847426108</v>
+        <v>6882561.274513839</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101645.5198651987</v>
+        <v>7694793.424870549</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112782.3361245948</v>
+        <v>8507360.864050489</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123919.1523839909</v>
+        <v>9319928.303230429</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135055.968643387</v>
+        <v>10132495.74241037</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>146192.7849027831</v>
+        <v>10945063.18159033</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>157329.6011621791</v>
+        <v>11757630.62077028</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>168466.4174215752</v>
+        <v>12570198.05995024</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>177</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
